--- a/biology/Zoologie/Celonites/Celonites.xlsx
+++ b/biology/Zoologie/Celonites/Celonites.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Celonites est un genre d'Insectes de l'ordre des Hyménoptères, de la famille des Vespidae et de la sous-famille Masarinae. Ce sont des guêpes solitaires maçonnes ou fouisseuses.
 </t>
@@ -511,15 +523,17 @@
           <t>Espèces européennes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Sauf exception, la liste ci-dessous provient de Fauna Europaea[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Sauf exception, la liste ci-dessous provient de Fauna Europaea.
 Genre Celonites Latreille, 1802
 Sous-genre Celonites (Celotines) (Latreille, 1802)
 Celonites abbreviatus (Villers, 1789)
 Celonites fischeri (Spinola, 1838)
 Celonites mayeti (Richards, 1962)
-Celonites tauricus (Kostylev, 1935)[2]
+Celonites tauricus (Kostylev, 1935)
 Sous-genre Celotines (Eucelonites) (Richards, 1962)
 Celonites cyprius (Saussure, 1854)
 Celonites hellenicus (Gusenleitner, 1997)
@@ -551,9 +565,11 @@
           <t>Liste complète des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sauf exception, cette liste provient du Catalogue Carpenter (2001)[3]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sauf exception, cette liste provient du Catalogue Carpenter (2001)
 Celonites abbreviatus (Villers, 1789) - Allemagne, Autriche, Hongrie, Suisse, France, Espagne, Portugal, Italie, Croatie, Albanie, Bulgarie, Grèce, Chypre, Turquie, Israël, Maroc
 Celonites afer (Lepeletier, 1841) - Maroc, Algérie, Tunisie, Libye
 Celonites Andreï (Brauns, 1905) - Afrique du Sud
@@ -610,7 +626,7 @@
 Celonites rugiceps (Bischoff, 1928) - Croatie, Yougoslavie, Bulgarie, Grèce, Crète, Chypre, Turquie
 Celonites semenovi (Kostylev, 1935) - Iran
 Celonites spinosus (Gusenleitner, 1966) - Turquie, Arménie
-Celonites tauricus (Kostylev, 1935) - Ukraine[2]
+Celonites tauricus (Kostylev, 1935) - Ukraine
 Celonites tristiculus (Kostylev, 1935)
 Celonites tristiculus tristiculus (Kostylev, 1935) - Ouzbéquistan
 Celonites tristiculus karatauicus (Kostylev, 1935) - Kazakstan
